--- a/领菌/4.16-领菌表-第三批.xlsx
+++ b/领菌/4.16-领菌表-第三批.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\领菌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F87059-C362-49E4-9DBF-7C014A330B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A042159-7761-4828-A45D-F32DB0A9D250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="85">
   <si>
     <t>B161</t>
   </si>
@@ -294,12 +294,20 @@
   <si>
     <t>2-B33-6</t>
   </si>
+  <si>
+    <t>按保藏位置排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按领菌编号排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +333,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,19 +671,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.58203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -675,8 +697,23 @@
       <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -686,8 +723,17 @@
       <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -697,8 +743,17 @@
       <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -708,8 +763,17 @@
       <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -719,8 +783,17 @@
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -730,8 +803,17 @@
       <c r="C6" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -741,8 +823,17 @@
       <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -752,8 +843,17 @@
       <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -763,8 +863,17 @@
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -774,8 +883,17 @@
       <c r="C10" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -785,8 +903,17 @@
       <c r="C11" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -796,8 +923,17 @@
       <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -807,8 +943,17 @@
       <c r="C13" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -818,8 +963,17 @@
       <c r="C14" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -829,8 +983,17 @@
       <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
@@ -840,8 +1003,17 @@
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -851,8 +1023,17 @@
       <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -862,8 +1043,17 @@
       <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -873,8 +1063,17 @@
       <c r="C19" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -884,8 +1083,17 @@
       <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -895,8 +1103,17 @@
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -906,8 +1123,17 @@
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -917,8 +1143,17 @@
       <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -928,8 +1163,17 @@
       <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -939,8 +1183,17 @@
       <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -950,8 +1203,17 @@
       <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -961,8 +1223,17 @@
       <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -972,8 +1243,17 @@
       <c r="C28" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -983,8 +1263,17 @@
       <c r="C29" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -994,8 +1283,17 @@
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -1005,8 +1303,17 @@
       <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
@@ -1016,8 +1323,17 @@
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
@@ -1027,8 +1343,17 @@
       <c r="C33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -1038,8 +1363,17 @@
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -1049,8 +1383,17 @@
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -1060,8 +1403,17 @@
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -1071,8 +1423,17 @@
       <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -1082,8 +1443,17 @@
       <c r="C38" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
@@ -1093,8 +1463,17 @@
       <c r="C39" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
@@ -1104,8 +1483,17 @@
       <c r="C40" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -1115,8 +1503,17 @@
       <c r="C41" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
@@ -1126,8 +1523,17 @@
       <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
@@ -1137,8 +1543,17 @@
       <c r="C43" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -1148,8 +1563,17 @@
       <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -1159,8 +1583,17 @@
       <c r="C45" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>53</v>
       </c>
@@ -1170,8 +1603,17 @@
       <c r="C46" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -1181,8 +1623,17 @@
       <c r="C47" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
@@ -1192,8 +1643,17 @@
       <c r="C48" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -1203,8 +1663,17 @@
       <c r="C49" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
@@ -1214,8 +1683,17 @@
       <c r="C50" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
@@ -1225,10 +1703,19 @@
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="F51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
-    <sortCondition ref="C2:C51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:H51">
+    <sortCondition ref="G2:G51"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
